--- a/AutoLoader/ThMEPEngine/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/ThMEPEngine/Contents/Support/提资转换配置表.xlsx
@@ -118,13 +118,7 @@
     <t>E-BFAS740</t>
   </si>
   <si>
-    <t>C0浓度传感器</t>
-  </si>
-  <si>
     <t>E-BEMS030</t>
-  </si>
-  <si>
-    <t>C02浓度传感器</t>
   </si>
   <si>
     <t>E-BEMS031</t>
@@ -358,14 +352,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C0浓度探测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02浓度探测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后倾离心风机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1041,6 +1027,68 @@
   </si>
   <si>
     <t>多叶送风口</t>
+  </si>
+  <si>
+    <t>CO浓度探测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2浓度传感器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2浓度探测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浓度传感器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1400,9 +1448,9 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1438,25 +1486,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -1464,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1476,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1487,18 +1535,18 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1510,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1521,18 +1569,18 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1544,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1555,18 +1603,18 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1578,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1589,18 +1637,18 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1612,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
@@ -1623,18 +1671,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1646,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="1">
@@ -1657,18 +1705,18 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1680,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1">
@@ -1691,18 +1739,18 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1714,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1">
@@ -1725,18 +1773,18 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1748,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1">
@@ -1759,18 +1807,18 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1782,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1">
@@ -1793,18 +1841,18 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1816,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="1">
@@ -1827,18 +1875,18 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1850,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="1">
@@ -1861,18 +1909,18 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1884,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1">
@@ -1895,18 +1943,18 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1918,7 +1966,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="1">
@@ -1929,18 +1977,18 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1952,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1">
@@ -1963,18 +2011,18 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1986,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="1">
@@ -1997,18 +2045,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -2020,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="1">
@@ -2031,18 +2079,18 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2054,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1">
@@ -2065,18 +2113,18 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2088,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1">
@@ -2099,18 +2147,18 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2122,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1">
@@ -2133,18 +2181,18 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2156,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1">
@@ -2167,18 +2215,18 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2190,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1">
@@ -2201,18 +2249,18 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2224,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="1">
@@ -2235,18 +2283,18 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -2258,7 +2306,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="1">
@@ -2269,18 +2317,18 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2292,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
@@ -2303,18 +2351,18 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2326,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
@@ -2337,18 +2385,18 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -2360,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
@@ -2371,18 +2419,18 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2394,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
@@ -2405,18 +2453,18 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -2428,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
@@ -2439,18 +2487,18 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -2462,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
@@ -2473,18 +2521,18 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -2496,7 +2544,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
@@ -2507,18 +2555,18 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -2530,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
@@ -2541,18 +2589,18 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -2564,7 +2612,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
@@ -2575,18 +2623,18 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -2598,7 +2646,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
@@ -2609,18 +2657,18 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2632,7 +2680,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="1">
@@ -2643,18 +2691,18 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2666,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1">
@@ -2677,18 +2725,18 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2700,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
@@ -2711,21 +2759,21 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -2734,7 +2782,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="1">
@@ -2745,18 +2793,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -2768,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1">
@@ -2779,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2790,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -2802,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
@@ -2813,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2824,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2836,7 +2884,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="1">
@@ -2847,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2858,10 +2906,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -2870,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="1">
@@ -2881,18 +2929,18 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2904,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="1">
@@ -2914,18 +2962,18 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2937,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="1">
@@ -2947,18 +2995,18 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2970,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="1">
@@ -2980,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -2991,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3003,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="1">
@@ -3013,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3024,7 +3072,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3036,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="1">
@@ -3046,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3057,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -3069,7 +3117,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="1">
@@ -3079,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3090,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3102,7 +3150,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="1">
@@ -3112,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3123,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -3135,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="1">
@@ -3145,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3156,7 +3204,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -3168,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="1">
@@ -3178,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3189,7 +3237,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3201,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="1">
@@ -3211,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3222,7 +3270,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -3234,7 +3282,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="1">
@@ -3244,28 +3292,28 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="1">
@@ -3275,28 +3323,28 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1">
@@ -3306,28 +3354,28 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="1">
@@ -3337,28 +3385,28 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="1">
@@ -3368,28 +3416,28 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="1">
@@ -3399,28 +3447,28 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="1">
@@ -3430,28 +3478,28 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="1">
@@ -3461,28 +3509,28 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="1">
@@ -3492,28 +3540,28 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="1">
@@ -3523,28 +3571,28 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1">
@@ -3554,28 +3602,28 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1">
@@ -3585,28 +3633,28 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="1">
@@ -3616,28 +3664,28 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="1">
@@ -3647,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3658,10 +3706,10 @@
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -3673,7 +3721,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="1">
@@ -3683,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3694,10 +3742,10 @@
         <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -3709,7 +3757,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="1">
@@ -3719,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3733,7 +3781,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -3745,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="1">
@@ -3755,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -3769,7 +3817,7 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -3781,7 +3829,7 @@
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="1">
@@ -3791,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3805,7 +3853,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -3817,7 +3865,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="1">
@@ -3827,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -3841,7 +3889,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -3853,7 +3901,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="1">
@@ -3863,21 +3911,21 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -3889,7 +3937,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1">
@@ -3899,10 +3947,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
@@ -3913,7 +3961,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -3925,7 +3973,7 @@
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="1">
@@ -3935,33 +3983,33 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="1">
@@ -3971,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -3982,22 +4030,22 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1">
@@ -4007,33 +4055,33 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>34</v>
+      <c r="B78" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="1">
@@ -4043,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4054,22 +4102,22 @@
         <v>29</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1">
@@ -4079,33 +4127,33 @@
         <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1">
@@ -4115,30 +4163,30 @@
         <v>0</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1">
@@ -4148,30 +4196,30 @@
         <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="1">
@@ -4181,306 +4229,306 @@
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1">
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="1">
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K86" s="2">
         <v>0</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="1">
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4521,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4533,25 +4581,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -4559,22 +4607,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1">
@@ -4584,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4595,22 +4643,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
@@ -4620,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4631,22 +4679,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1">
@@ -4656,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4667,22 +4715,22 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1">
@@ -4692,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4703,22 +4751,22 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1">
@@ -4728,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -4739,10 +4787,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4754,7 +4802,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1">
@@ -4764,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4775,10 +4823,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4790,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1">
@@ -4800,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4811,22 +4859,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1">
@@ -4836,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4847,22 +4895,22 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1">
@@ -4872,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4883,22 +4931,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1">
@@ -4908,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4919,22 +4967,22 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1">
@@ -4944,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -4955,22 +5003,22 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="1">
@@ -4980,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4991,22 +5039,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="1">
@@ -5016,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5027,22 +5075,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="1">
@@ -5052,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5063,22 +5111,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="1">
@@ -5088,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5099,22 +5147,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="1">
@@ -5124,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5135,22 +5183,22 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="1">
@@ -5160,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5171,22 +5219,22 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="1">
@@ -5196,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5207,22 +5255,22 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="1">
@@ -5232,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5243,22 +5291,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="1">
@@ -5268,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5279,22 +5327,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="1">
@@ -5304,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -5315,22 +5363,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="1">
@@ -5340,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5351,22 +5399,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="1">
@@ -5376,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5387,22 +5435,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="1">
@@ -5412,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5423,22 +5471,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="1">
@@ -5448,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5459,22 +5507,22 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="1">
@@ -5484,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5495,10 +5543,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -5510,7 +5558,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="1">
@@ -5520,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5531,10 +5579,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -5546,7 +5594,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="1">
@@ -5556,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5567,22 +5615,22 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="1">
@@ -5592,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5603,22 +5651,22 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="1">
@@ -5628,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5639,22 +5687,22 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="1">
@@ -5664,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5675,22 +5723,22 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="1">
@@ -5700,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5711,22 +5759,22 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="1">
@@ -5736,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5747,22 +5795,22 @@
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="1">
@@ -5772,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5783,22 +5831,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="1">
@@ -5808,10 +5856,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5819,22 +5867,22 @@
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="1">
@@ -5844,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5855,22 +5903,22 @@
         <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="1">
@@ -5880,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5891,22 +5939,22 @@
         <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="1">
@@ -5916,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5927,22 +5975,22 @@
         <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="1">
@@ -5952,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5963,22 +6011,22 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="1">
@@ -5988,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5999,22 +6047,22 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="1">
@@ -6024,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -6035,22 +6083,22 @@
         <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="D43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="1">
@@ -6060,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -6071,22 +6119,22 @@
         <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="1">
@@ -6096,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -6107,22 +6155,22 @@
         <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="1">
@@ -6132,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -6143,22 +6191,22 @@
         <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="1">
@@ -6168,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -6179,22 +6227,22 @@
         <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="1">
@@ -6204,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6215,22 +6263,22 @@
         <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="1">
@@ -6240,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6251,22 +6299,22 @@
         <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="1">
@@ -6276,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
@@ -6290,7 +6338,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6302,7 +6350,7 @@
         <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="1">
@@ -6312,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6326,7 +6374,7 @@
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6338,7 +6386,7 @@
         <v>23</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="1">
@@ -6348,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6362,7 +6410,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -6374,7 +6422,7 @@
         <v>23</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="1">
@@ -6384,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6398,7 +6446,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -6410,7 +6458,7 @@
         <v>23</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="1">
@@ -6420,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6431,22 +6479,22 @@
         <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="1">
@@ -6456,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6467,22 +6515,22 @@
         <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="1">
@@ -6492,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6503,22 +6551,22 @@
         <v>21</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="1">
@@ -6528,10 +6576,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -6542,7 +6590,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -6554,7 +6602,7 @@
         <v>23</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="1">
@@ -6564,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6578,7 +6626,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -6590,7 +6638,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="1">
@@ -6600,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6614,7 +6662,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -6626,7 +6674,7 @@
         <v>23</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="1">
@@ -6636,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6650,7 +6698,7 @@
         <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -6662,7 +6710,7 @@
         <v>23</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="1">
@@ -6672,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6683,22 +6731,22 @@
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="1">
@@ -6708,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
@@ -6719,22 +6767,22 @@
         <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="1">
@@ -6744,10 +6792,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6755,22 +6803,22 @@
         <v>24</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="1">
@@ -6780,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6791,22 +6839,22 @@
         <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="1">
@@ -6816,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
@@ -6830,7 +6878,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -6842,7 +6890,7 @@
         <v>23</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="1">
@@ -6852,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6866,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -6878,7 +6926,7 @@
         <v>23</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="1">
@@ -6888,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6902,7 +6950,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -6914,7 +6962,7 @@
         <v>23</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="1">
@@ -6924,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6938,7 +6986,7 @@
         <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -6950,7 +6998,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="1">
@@ -6960,10 +7008,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6971,22 +7019,22 @@
         <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="1">
@@ -6996,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
@@ -7007,22 +7055,22 @@
         <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="1">
@@ -7032,345 +7080,345 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="1">
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="1">
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="4">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="1">
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" s="4">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="1">
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="4">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="1">
@@ -7380,33 +7428,33 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="1">
@@ -7416,28 +7464,28 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="1">
@@ -7447,28 +7495,28 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="1">
@@ -7478,33 +7526,33 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="1">
@@ -7514,33 +7562,33 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H84" s="4">
         <v>0</v>
@@ -7549,39 +7597,39 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="1">
@@ -7591,72 +7639,72 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="1">
@@ -7666,72 +7714,72 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="1">
@@ -7741,70 +7789,70 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="1">
@@ -7814,31 +7862,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H92" s="4">
         <v>0</v>
@@ -7847,39 +7895,39 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="1">
@@ -7889,72 +7937,72 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="1">
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="1">
@@ -7964,49 +8012,49 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="1">
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -8014,22 +8062,22 @@
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="1">
@@ -8040,10 +8088,10 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">

--- a/AutoLoader/ThMEPEngine/Contents/Support/提资转换配置表.xlsx
+++ b/AutoLoader/ThMEPEngine/Contents/Support/提资转换配置表.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-225" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="30615" yWindow="-225" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="强电" sheetId="1" r:id="rId1"/>
     <sheet name="弱电" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="324">
   <si>
     <t>源块名</t>
   </si>
@@ -1052,6 +1052,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1083,12 +1084,90 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>浓度传感器</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70度防火调节阀FVD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18092514Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18092542Body</t>
+  </si>
+  <si>
+    <t>18092629Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18092659Body</t>
+  </si>
+  <si>
+    <t>18092718Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01105946Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01113848Body</t>
+  </si>
+  <si>
+    <t>18094041Body</t>
+  </si>
+  <si>
+    <t>18094222Body</t>
+  </si>
+  <si>
+    <t>18094315Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18094356Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18094814Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18094849Body</t>
+  </si>
+  <si>
+    <t>18094950Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18095035Body</t>
+  </si>
+  <si>
+    <t>18103804Body</t>
+  </si>
+  <si>
+    <t>18104356Body</t>
+  </si>
+  <si>
+    <t>18104436Body</t>
+  </si>
+  <si>
+    <t>18104527Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18104611Body</t>
+  </si>
+  <si>
+    <t>18094041Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1445,12 +1524,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3737,19 +3816,14 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>213</v>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="1" t="s">
         <v>22</v>
       </c>
@@ -3759,26 +3833,27 @@
       <c r="G69" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="1">
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1">
         <v>0</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>113</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>251</v>
@@ -3809,19 +3884,14 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>26</v>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="1" t="s">
         <v>22</v>
       </c>
@@ -3831,26 +3901,27 @@
       <c r="G71" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="1">
         <v>0</v>
       </c>
-      <c r="K71" s="2">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>113</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>251</v>
@@ -3886,7 +3957,7 @@
         <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>251</v>
@@ -3917,12 +3988,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>179</v>
+    <row r="74" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>251</v>
@@ -3953,21 +4024,21 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
@@ -3986,24 +4057,24 @@
         <v>113</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
@@ -4022,15 +4093,15 @@
         <v>113</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>211</v>
@@ -4039,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
@@ -4058,7 +4129,7 @@
         <v>113</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4066,7 +4137,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>211</v>
@@ -4075,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
@@ -4094,15 +4165,15 @@
         <v>113</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>300</v>
+      <c r="B79" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>211</v>
@@ -4111,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
@@ -4130,15 +4201,15 @@
         <v>113</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>211</v>
@@ -4147,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>23</v>
@@ -4166,12 +4237,15 @@
         <v>113</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>211</v>
@@ -4180,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>173</v>
@@ -4193,18 +4267,21 @@
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>211</v>
@@ -4213,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>173</v>
@@ -4226,102 +4303,89 @@
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>41</v>
+      <c r="A83" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>173</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>43</v>
+      <c r="A84" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>173</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="1">
-        <v>1</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="K84" s="2">
         <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4331,34 +4395,30 @@
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
         <v>1</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K85" s="2">
-        <v>0</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>124</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4368,24 +4428,21 @@
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
         <v>1</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K86" s="2">
-        <v>0</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>124</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -4408,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K87" s="2">
         <v>0</v>
@@ -4422,7 +4479,7 @@
     </row>
     <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>43</v>
@@ -4445,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K88" s="2">
         <v>0</v>
@@ -4459,7 +4516,7 @@
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
@@ -4496,7 +4553,7 @@
     </row>
     <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>47</v>
@@ -4519,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
@@ -4528,6 +4585,154 @@
         <v>124</v>
       </c>
       <c r="M90" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4540,12 +4745,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4638,19 +4843,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>215</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
@@ -4679,7 +4879,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>253</v>
@@ -4688,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -4707,24 +4907,19 @@
         <v>113</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -4743,15 +4938,15 @@
         <v>113</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>253</v>
@@ -4779,24 +4974,19 @@
         <v>113</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
+      <c r="A7" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -4815,7 +5005,7 @@
         <v>113</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4823,7 +5013,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>253</v>
@@ -4832,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
@@ -4851,15 +5041,15 @@
         <v>113</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>253</v>
@@ -4868,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -4887,24 +5077,19 @@
         <v>113</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -4923,15 +5108,15 @@
         <v>113</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>253</v>
@@ -4940,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -4959,24 +5144,19 @@
         <v>113</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -4995,15 +5175,15 @@
         <v>113</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>253</v>
@@ -5012,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
@@ -5031,24 +5211,19 @@
         <v>113</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
@@ -5067,7 +5242,7 @@
         <v>113</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5075,7 +5250,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>253</v>
@@ -5084,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
@@ -5103,24 +5278,19 @@
         <v>113</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
@@ -5139,7 +5309,7 @@
         <v>113</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5147,7 +5317,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>253</v>
@@ -5156,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -5175,24 +5345,19 @@
         <v>113</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
@@ -5211,15 +5376,15 @@
         <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>253</v>
@@ -5228,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
@@ -5247,24 +5412,19 @@
         <v>113</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
@@ -5283,7 +5443,7 @@
         <v>113</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5291,7 +5451,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>253</v>
@@ -5300,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
@@ -5319,24 +5479,19 @@
         <v>113</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>23</v>
@@ -5355,15 +5510,15 @@
         <v>113</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>253</v>
@@ -5372,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>23</v>
@@ -5391,24 +5546,19 @@
         <v>113</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>23</v>
@@ -5427,7 +5577,7 @@
         <v>113</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5435,7 +5585,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>253</v>
@@ -5444,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
@@ -5463,7 +5613,7 @@
         <v>113</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5471,7 +5621,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>253</v>
@@ -5480,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
@@ -5499,15 +5649,15 @@
         <v>113</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>253</v>
@@ -5516,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>23</v>
@@ -5535,7 +5685,7 @@
         <v>113</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5543,7 +5693,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>253</v>
@@ -5552,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>23</v>
@@ -5571,7 +5721,7 @@
         <v>113</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5579,7 +5729,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>253</v>
@@ -5588,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>23</v>
@@ -5607,7 +5757,7 @@
         <v>113</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5615,7 +5765,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>253</v>
@@ -5624,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>23</v>
@@ -5643,15 +5793,15 @@
         <v>113</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>239</v>
+      <c r="B31" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>253</v>
@@ -5660,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>23</v>
@@ -5679,15 +5829,15 @@
         <v>113</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>253</v>
@@ -5696,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
@@ -5715,15 +5865,15 @@
         <v>113</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>241</v>
+      <c r="B33" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>253</v>
@@ -5732,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>23</v>
@@ -5751,15 +5901,15 @@
         <v>113</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>253</v>
@@ -5768,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
@@ -5787,7 +5937,7 @@
         <v>113</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5795,7 +5945,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>253</v>
@@ -5804,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>23</v>
@@ -5823,7 +5973,7 @@
         <v>113</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5831,7 +5981,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>253</v>
@@ -5840,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
@@ -5859,24 +6009,19 @@
         <v>113</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>23</v>
@@ -5895,7 +6040,7 @@
         <v>113</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -5903,7 +6048,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>253</v>
@@ -5912,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>23</v>
@@ -5931,24 +6076,19 @@
         <v>113</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>23</v>
@@ -5967,7 +6107,7 @@
         <v>113</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -5975,7 +6115,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>253</v>
@@ -5984,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>23</v>
@@ -6003,15 +6143,15 @@
         <v>113</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>247</v>
+      <c r="B41" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>253</v>
@@ -6020,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>23</v>
@@ -6039,15 +6179,15 @@
         <v>113</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>253</v>
@@ -6056,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>23</v>
@@ -6075,15 +6215,15 @@
         <v>113</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>249</v>
+      <c r="B43" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>253</v>
@@ -6092,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>23</v>
@@ -6111,15 +6251,15 @@
         <v>113</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>292</v>
+      <c r="B44" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>253</v>
@@ -6147,15 +6287,15 @@
         <v>113</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>294</v>
+      <c r="B45" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>253</v>
@@ -6183,15 +6323,15 @@
         <v>113</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>296</v>
+      <c r="B46" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>253</v>
@@ -6200,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>23</v>
@@ -6219,15 +6359,15 @@
         <v>113</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>253</v>
@@ -6236,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>23</v>
@@ -6254,8 +6394,8 @@
       <c r="L47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>56</v>
+      <c r="M47" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6263,7 +6403,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>253</v>
@@ -6272,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>23</v>
@@ -6291,7 +6431,7 @@
         <v>113</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6299,7 +6439,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>253</v>
@@ -6308,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>23</v>
@@ -6327,15 +6467,15 @@
         <v>113</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>253</v>
@@ -6344,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>23</v>
@@ -6363,7 +6503,7 @@
         <v>113</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6371,7 +6511,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>253</v>
@@ -6380,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>23</v>
@@ -6399,24 +6539,19 @@
         <v>113</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>23</v>
@@ -6435,7 +6570,7 @@
         <v>113</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -6443,7 +6578,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>253</v>
@@ -6452,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>23</v>
@@ -6471,22 +6606,17 @@
         <v>113</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="1" t="s">
         <v>53</v>
       </c>
@@ -6510,12 +6640,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>253</v>
@@ -6524,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>23</v>
@@ -6543,24 +6673,19 @@
         <v>113</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
@@ -6579,15 +6704,15 @@
         <v>113</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
+      <c r="B57" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>253</v>
@@ -6596,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>23</v>
@@ -6615,15 +6740,15 @@
         <v>113</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>253</v>
@@ -6632,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>23</v>
@@ -6651,24 +6776,19 @@
         <v>113</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>23</v>
@@ -6687,15 +6807,15 @@
         <v>113</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>28</v>
+      <c r="B60" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>253</v>
@@ -6704,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>23</v>
@@ -6723,15 +6843,15 @@
         <v>113</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>60</v>
+      <c r="B61" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>253</v>
@@ -6740,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>23</v>
@@ -6759,15 +6879,15 @@
         <v>113</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>61</v>
+      <c r="B62" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>253</v>
@@ -6776,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>23</v>
@@ -6795,15 +6915,15 @@
         <v>113</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>253</v>
@@ -6812,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>23</v>
@@ -6831,22 +6951,18 @@
         <v>113</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="1" t="s">
         <v>51</v>
       </c>
@@ -6867,15 +6983,15 @@
         <v>113</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>253</v>
@@ -6884,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>23</v>
@@ -6902,25 +7018,20 @@
       <c r="L65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>26</v>
+      <c r="M65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D66" s="4"/>
       <c r="E66" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>23</v>
@@ -6938,16 +7049,16 @@
       <c r="L66" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>278</v>
+      <c r="M66" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>253</v>
@@ -6956,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>23</v>
@@ -6975,15 +7086,15 @@
         <v>113</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>253</v>
@@ -6992,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>23</v>
@@ -7011,15 +7122,15 @@
         <v>113</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>253</v>
@@ -7028,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>23</v>
@@ -7047,15 +7158,15 @@
         <v>113</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>253</v>
@@ -7064,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
@@ -7083,24 +7194,24 @@
         <v>113</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -7110,36 +7221,33 @@
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="1">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
       </c>
-      <c r="L71" s="3" t="s">
-        <v>128</v>
+      <c r="L71" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>23</v>
@@ -7149,36 +7257,33 @@
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>128</v>
+      <c r="L72" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>23</v>
@@ -7188,36 +7293,33 @@
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
-      <c r="L73" s="3" t="s">
-        <v>128</v>
+      <c r="L73" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>23</v>
@@ -7227,36 +7329,33 @@
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
-      <c r="L74" s="3" t="s">
-        <v>128</v>
+      <c r="L74" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
@@ -7266,36 +7365,33 @@
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="L75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
@@ -7305,36 +7401,33 @@
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="1">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="L76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
@@ -7344,36 +7437,33 @@
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
       </c>
-      <c r="L77" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="L77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
@@ -7383,36 +7473,33 @@
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="1">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
         <v>0</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
@@ -7425,30 +7512,30 @@
         <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>23</v>
@@ -7461,31 +7548,36 @@
         <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>136</v>
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D81" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="1">
@@ -7494,29 +7586,34 @@
       <c r="K81" s="1">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>124</v>
+      <c r="L81" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="1">
@@ -7525,34 +7622,34 @@
       <c r="K82" s="1">
         <v>0</v>
       </c>
-      <c r="L82" s="3" t="s">
-        <v>128</v>
+      <c r="L82" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="1">
@@ -7561,69 +7658,64 @@
       <c r="K83" s="1">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>128</v>
+      <c r="L83" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H84" s="4"/>
       <c r="I84" s="1">
-        <v>1</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
         <v>0</v>
       </c>
-      <c r="L84" s="3" t="s">
-        <v>128</v>
+      <c r="L84" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>23</v>
@@ -7638,28 +7730,28 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>128</v>
+      <c r="L85" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
@@ -7669,36 +7761,33 @@
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="1">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
       </c>
-      <c r="L86" s="3" t="s">
-        <v>128</v>
+      <c r="L86" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
@@ -7713,28 +7802,28 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>128</v>
+      <c r="L87" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
@@ -7744,36 +7833,33 @@
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="1">
-        <v>1</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
-      <c r="L88" s="3" t="s">
-        <v>128</v>
+      <c r="L88" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
@@ -7788,28 +7874,28 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>128</v>
+      <c r="L89" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>23</v>
@@ -7819,109 +7905,111 @@
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="1">
-        <v>1</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
-      <c r="L90" s="3" t="s">
-        <v>128</v>
+      <c r="L90" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>264</v>
+        <v>62</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="K91" s="1">
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>265</v>
+        <v>62</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H92" s="4"/>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>263</v>
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
@@ -7931,33 +8019,36 @@
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="K93" s="1">
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>266</v>
+        <v>62</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
@@ -7970,33 +8061,33 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>268</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>254</v>
+      <c r="D95" s="4">
+        <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>23</v>
@@ -8006,33 +8097,36 @@
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="K95" s="1">
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>269</v>
+        <v>128</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>254</v>
+      <c r="D96" s="4">
+        <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>23</v>
@@ -8045,62 +8139,799 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H108" s="4"/>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H113" s="4"/>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="2">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M97" s="3" t="s">
+      <c r="C117" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5"/>
+      <c r="K117" s="2">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M117" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L98" s="2"/>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L99" s="2"/>
-      <c r="M99" s="3"/>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L118" s="2"/>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L119" s="2"/>
+      <c r="M119" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
